--- a/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/6.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/6.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:GW39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="ER18" sqref="ER18"/>
+      <selection activeCell="EG14" sqref="EG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3613,9 +3613,7 @@
       <c r="DV13" s="8"/>
       <c r="DW13" s="40"/>
       <c r="DX13" s="96"/>
-      <c r="DY13" s="67">
-        <v>1</v>
-      </c>
+      <c r="DY13" s="67"/>
       <c r="DZ13" s="67"/>
       <c r="EA13" s="97"/>
       <c r="EB13" s="30"/>
@@ -4016,18 +4014,10 @@
       <c r="DG15" s="1"/>
       <c r="DH15" s="1"/>
       <c r="DI15" s="1"/>
-      <c r="DJ15" s="63">
-        <v>1</v>
-      </c>
-      <c r="DK15" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL15" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM15" s="1">
-        <v>1</v>
-      </c>
+      <c r="DJ15" s="63"/>
+      <c r="DK15" s="1"/>
+      <c r="DL15" s="1"/>
+      <c r="DM15" s="1"/>
       <c r="DN15" s="63">
         <v>1</v>
       </c>
@@ -4255,9 +4245,7 @@
       <c r="DG16" s="1"/>
       <c r="DH16" s="1"/>
       <c r="DI16" s="1"/>
-      <c r="DJ16" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ16" s="63"/>
       <c r="DK16" s="1"/>
       <c r="DL16" s="1"/>
       <c r="DM16" s="1"/>
@@ -4464,9 +4452,7 @@
       <c r="DG17" s="1"/>
       <c r="DH17" s="1"/>
       <c r="DI17" s="1"/>
-      <c r="DJ17" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ17" s="63"/>
       <c r="DK17" s="1"/>
       <c r="DL17" s="1"/>
       <c r="DM17" s="1"/>
@@ -4673,9 +4659,7 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ18" s="63"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
       <c r="DM18" s="1"/>
@@ -4882,9 +4866,7 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="63"/>
-      <c r="DJ19" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ19" s="63"/>
       <c r="DK19" s="1"/>
       <c r="DL19" s="1"/>
       <c r="DM19" s="1"/>
@@ -5091,9 +5073,7 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="63"/>
-      <c r="DJ20" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ20" s="63"/>
       <c r="DK20" s="1"/>
       <c r="DL20" s="1"/>
       <c r="DM20" s="1"/>
@@ -5300,9 +5280,7 @@
       <c r="DG21" s="1"/>
       <c r="DH21" s="1"/>
       <c r="DI21" s="63"/>
-      <c r="DJ21" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ21" s="63"/>
       <c r="DK21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DM21" s="1"/>
@@ -5509,9 +5487,7 @@
       <c r="DG22" s="1"/>
       <c r="DH22" s="1"/>
       <c r="DI22" s="63"/>
-      <c r="DJ22" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ22" s="63"/>
       <c r="DK22" s="1"/>
       <c r="DL22" s="1"/>
       <c r="DM22" s="1"/>
@@ -5742,45 +5718,19 @@
       <c r="DQ23" s="86">
         <v>1</v>
       </c>
-      <c r="DR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="81">
-        <v>1</v>
-      </c>
-      <c r="DT23" s="62">
-        <v>1</v>
-      </c>
-      <c r="DU23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DV23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DW23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DZ23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EA23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EB23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="63">
-        <v>1</v>
-      </c>
-      <c r="ED23" s="63">
-        <v>1</v>
-      </c>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="81"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="63"/>
+      <c r="DV23" s="63"/>
+      <c r="DW23" s="63"/>
+      <c r="DX23" s="63"/>
+      <c r="DY23" s="63"/>
+      <c r="DZ23" s="63"/>
+      <c r="EA23" s="63"/>
+      <c r="EB23" s="63"/>
+      <c r="EC23" s="63"/>
+      <c r="ED23" s="63"/>
       <c r="EE23" s="1"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
